--- a/reports/marketdo4a-spb-riverstart.xlsx
+++ b/reports/marketdo4a-spb-riverstart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>Кампания</t>
   </si>
@@ -49,55 +49,418 @@
     <t>CV</t>
   </si>
   <si>
+    <t>Омега - Общая - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4,11</t>
+  </si>
+  <si>
+    <t>83,24</t>
+  </si>
+  <si>
+    <t>22,22</t>
+  </si>
+  <si>
+    <t>Омега - Горячая - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10,00</t>
+  </si>
+  <si>
+    <t>9,37</t>
+  </si>
+  <si>
+    <t>0,00</t>
+  </si>
+  <si>
+    <t>Изоляты - Общая - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>4,16</t>
+  </si>
+  <si>
+    <t>828,27</t>
+  </si>
+  <si>
+    <t>29,63</t>
+  </si>
+  <si>
+    <t>Изоляты - Горячая - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>10,96</t>
+  </si>
+  <si>
+    <t>705,21</t>
+  </si>
+  <si>
+    <t>39,29</t>
+  </si>
+  <si>
+    <t>Динамические объявления - Поиск - Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>5608</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>5,65</t>
+  </si>
+  <si>
+    <t>6103,98</t>
+  </si>
+  <si>
+    <t>1190,00</t>
+  </si>
+  <si>
+    <t>32,65</t>
+  </si>
+  <si>
     <t>Гейнер - Общая - Поиск - СПБ</t>
   </si>
   <si>
-    <t>27</t>
+    <t>1735</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>5,19</t>
+  </si>
+  <si>
+    <t>1436,51</t>
+  </si>
+  <si>
+    <t>990,00</t>
+  </si>
+  <si>
+    <t>9,88</t>
+  </si>
+  <si>
+    <t>Гейнер - Горячая - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>11,57</t>
+  </si>
+  <si>
+    <t>1258,21</t>
+  </si>
+  <si>
+    <t>3952,00</t>
+  </si>
+  <si>
+    <t>19,63</t>
+  </si>
+  <si>
+    <t>Протеин - Горячая - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>4119</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>10,05</t>
+  </si>
+  <si>
+    <t>8653,13</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>7,41</t>
-  </si>
-  <si>
-    <t>34,04</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>Гейнер - Горячая - Поиск - СПБ</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>1580,00</t>
+  </si>
+  <si>
+    <t>15,80</t>
+  </si>
+  <si>
+    <t>Протеин - Общая - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>4834</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>5,34</t>
+  </si>
+  <si>
+    <t>4525,20</t>
+  </si>
+  <si>
+    <t>16,10</t>
+  </si>
+  <si>
+    <t>МКб по категориям - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>11157</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>0,70</t>
+  </si>
+  <si>
+    <t>4725,44</t>
+  </si>
+  <si>
+    <t>2080,00</t>
+  </si>
+  <si>
+    <t>17,11</t>
+  </si>
+  <si>
+    <t>Bcaa - Общие - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2,69</t>
+  </si>
+  <si>
+    <t>169,80</t>
+  </si>
+  <si>
+    <t>7,14</t>
+  </si>
+  <si>
+    <t>Bcaa - Горячие - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>751,42</t>
+  </si>
+  <si>
+    <t>18,60</t>
+  </si>
+  <si>
+    <t>МКБ на конкурентов - Поиск - Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>3656</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>0,36</t>
+  </si>
+  <si>
+    <t>2037,38</t>
+  </si>
+  <si>
+    <t>Карнитин - Горячие - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>10,23</t>
+  </si>
+  <si>
+    <t>3266,31</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>21,05</t>
-  </si>
-  <si>
-    <t>49,91</t>
-  </si>
-  <si>
-    <t>Карнитин - Горячие - Поиск - СПБ</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>6,67</t>
-  </si>
-  <si>
-    <t>15,30</t>
-  </si>
-  <si>
-    <t>Total rows: 3</t>
+    <t>5645,00</t>
+  </si>
+  <si>
+    <t>19,55</t>
+  </si>
+  <si>
+    <t>Карнитин - Общие - Поиск - СПБ</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>6,82</t>
+  </si>
+  <si>
+    <t>3570,25</t>
+  </si>
+  <si>
+    <t>29,17</t>
+  </si>
+  <si>
+    <t>Ретаргет общий - Посетит 45 дн кроме покуп за последн 14 дн - Сети - Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>13850</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>0,79</t>
+  </si>
+  <si>
+    <t>2044,10</t>
+  </si>
+  <si>
+    <t>850,00</t>
+  </si>
+  <si>
+    <t>30,26</t>
+  </si>
+  <si>
+    <t>Конкуренты - Поиск - Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>6171</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>1,13</t>
+  </si>
+  <si>
+    <t>2593,02</t>
+  </si>
+  <si>
+    <t>26,79</t>
+  </si>
+  <si>
+    <t>Бренд - РСЯ - Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>0,41</t>
+  </si>
+  <si>
+    <t>14,98</t>
+  </si>
+  <si>
+    <t>Карнитин - РСЯ - Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0,55</t>
+  </si>
+  <si>
+    <t>45,10</t>
+  </si>
+  <si>
+    <t>33,33</t>
+  </si>
+  <si>
+    <t>Bcaa - РСЯ - Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>1,06</t>
+  </si>
+  <si>
+    <t>105,71</t>
+  </si>
+  <si>
+    <t>28,57</t>
+  </si>
+  <si>
+    <t>Изолят - РСЯ - Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Гейнер - РСЯ - Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>1,72</t>
+  </si>
+  <si>
+    <t>58,40</t>
+  </si>
+  <si>
+    <t>Протеин - РСЯ - Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>0,91</t>
+  </si>
+  <si>
+    <t>219,31</t>
+  </si>
+  <si>
+    <t>20,00</t>
+  </si>
+  <si>
+    <t>Total rows: 23</t>
   </si>
 </sst>
 </file>
@@ -433,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,22 +855,21 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
       </c>
       <c r="I2">
         <f>E2/C2</f>
         <v/>
       </c>
-      <c r="J2">
-        <f>E2/F2</f>
-        <v/>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
       <c r="K2">
         <f>F2/C2</f>
@@ -516,28 +878,28 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
       </c>
       <c r="I3">
         <f>E3/C3</f>
@@ -559,22 +921,22 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <f>E4/C4</f>
@@ -590,7 +952,752 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <f>E5/C5</f>
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>F5/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6">
+        <f>E6/C6</f>
+        <v/>
+      </c>
+      <c r="J6">
+        <f>E6/F6</f>
+        <v/>
+      </c>
+      <c r="K6">
+        <f>F6/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7">
+        <f>E7/C7</f>
+        <v/>
+      </c>
+      <c r="J7">
+        <f>E7/F7</f>
+        <v/>
+      </c>
+      <c r="K7">
+        <f>F7/C7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8">
+        <f>E8/C8</f>
+        <v/>
+      </c>
+      <c r="J8">
+        <f>E8/F8</f>
+        <v/>
+      </c>
+      <c r="K8">
+        <f>F8/C8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9">
+        <f>E9/C9</f>
+        <v/>
+      </c>
+      <c r="J9">
+        <f>E9/F9</f>
+        <v/>
+      </c>
+      <c r="K9">
+        <f>F9/C9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <f>E10/C10</f>
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>F10/C10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11">
+        <f>E11/C11</f>
+        <v/>
+      </c>
+      <c r="J11">
+        <f>E11/F11</f>
+        <v/>
+      </c>
+      <c r="K11">
+        <f>F11/C11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12">
+        <f>E12/C12</f>
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>F12/C12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <f>E13/C13</f>
+        <v/>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>F13/C13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <f>E14/C14</f>
+        <v/>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>F14/C14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <f>E15/C15</f>
+        <v/>
+      </c>
+      <c r="J15">
+        <f>E15/F15</f>
+        <v/>
+      </c>
+      <c r="K15">
+        <f>F15/C15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16">
+        <f>E16/C16</f>
+        <v/>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>F16/C16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17">
+        <f>E17/C17</f>
+        <v/>
+      </c>
+      <c r="J17">
+        <f>E17/F17</f>
+        <v/>
+      </c>
+      <c r="K17">
+        <f>F17/C17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18">
+        <f>E18/C18</f>
+        <v/>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>F18/C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <f>E19/C19</f>
+        <v/>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>F19/C19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20">
+        <f>E20/C20</f>
+        <v/>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>F20/C20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21">
+        <f>E21/C21</f>
+        <v/>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>F21/C21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <f>E23/C23</f>
+        <v/>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>F23/C23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24">
+        <f>E24/C24</f>
+        <v/>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>F24/C24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
